--- a/item.xlsx
+++ b/item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\gitExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897F8472-7FA4-4767-B898-D100C54F344D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91B302-1849-4D73-B1F2-3753FCBCA4E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Char" sheetId="5" r:id="rId3"/>
     <sheet name="Spine(ani)" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="180">
   <si>
     <t>Scene Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,10 +569,6 @@
   </si>
   <si>
     <t>하급에이전트B</t>
-  </si>
-  <si>
-    <t>outsourcing_MAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>outsourcing_Char_Modeling</t>
@@ -1269,6 +1265,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1278,20 +1286,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,16 +1304,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,21 +1596,21 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="21" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.3984375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.38671875" style="14" customWidth="1"/>
     <col min="8" max="8" width="21" style="13" customWidth="1"/>
-    <col min="9" max="9" width="17.3984375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17.38671875" style="14" customWidth="1"/>
     <col min="11" max="11" width="21" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="17.38671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -1627,53 +1623,51 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="2:12" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="47"/>
+      <c r="H2" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="45"/>
+      <c r="K2" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="K2" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="2:12" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1">
-      <c r="B5" s="37" t="s">
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="5" spans="2:12" ht="17" thickBot="1">
+      <c r="B5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="E5" s="37" t="s">
+      <c r="C5" s="42"/>
+      <c r="E5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="K5" s="37" t="s">
+      <c r="I5" s="42"/>
+      <c r="K5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="9" t="s">
@@ -1729,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18" thickBot="1">
+    <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>97</v>
       </c>
@@ -1758,23 +1752,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1">
-      <c r="B10" s="37" t="s">
+    <row r="10" spans="2:12" ht="17" thickBot="1">
+      <c r="B10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="E10" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="H10" s="37" t="s">
+      <c r="C10" s="42"/>
+      <c r="E10" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="H10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="K10" s="37" t="s">
+      <c r="I10" s="42"/>
+      <c r="K10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
@@ -1830,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="18" thickBot="1">
+    <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1859,23 +1853,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="18" thickBot="1">
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="2:12" ht="17" thickBot="1">
+      <c r="B15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="E15" s="39" t="s">
+      <c r="C15" s="42"/>
+      <c r="E15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="H15" s="39" t="s">
+      <c r="F15" s="42"/>
+      <c r="H15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="K15" s="39" t="s">
+      <c r="I15" s="42"/>
+      <c r="K15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
@@ -1940,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
@@ -1958,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1">
+    <row r="19" spans="2:12" ht="17" thickBot="1">
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
@@ -1967,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="16">
         <v>1</v>
@@ -1986,37 +1980,37 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="39"/>
-      <c r="C21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="38"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6:C7">
@@ -2368,27 +2362,27 @@
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <cols>
-    <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.71875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.27734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.38671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.609375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.71875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="18" thickBot="1"/>
+    <row r="1" spans="2:17" ht="17" thickBot="1"/>
     <row r="2" spans="2:17">
       <c r="B2" s="19" t="s">
         <v>98</v>
@@ -2416,7 +2410,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:17" ht="18" thickBot="1">
+    <row r="5" spans="2:17" ht="17" thickBot="1">
       <c r="B5" s="22" t="s">
         <v>101</v>
       </c>
@@ -2454,32 +2448,32 @@
         <v>14</v>
       </c>
       <c r="K7" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="N7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="O7" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="Q7" s="32" t="s">
         <v>175</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2517,20 +2511,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P8" s="31">
         <v>43266</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
@@ -2566,20 +2560,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P9" s="31">
         <v>43267</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
@@ -2615,20 +2609,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P10" s="31">
         <v>43268</v>
       </c>
       <c r="Q10" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
@@ -2664,20 +2658,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P11" s="31">
         <v>43269</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
@@ -2713,20 +2707,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P12" s="31">
         <v>43270</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2762,20 +2756,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P13" s="31">
         <v>43271</v>
       </c>
       <c r="Q13" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2811,20 +2805,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P14" s="31">
         <v>43272</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="6">
         <v>8</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
@@ -2860,20 +2854,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P15" s="31">
         <v>43273</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="6">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
@@ -2909,20 +2903,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P16" s="31">
         <v>43274</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
@@ -2958,20 +2952,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P17" s="31">
         <v>43275</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="6">
         <v>11</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
@@ -3007,20 +3001,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P18" s="31">
         <v>43276</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="6">
         <v>12</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="6" t="s">
         <v>15</v>
       </c>
@@ -3056,20 +3050,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P19" s="31">
         <v>43277</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="6">
         <v>13</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="6" t="s">
         <v>16</v>
       </c>
@@ -3105,20 +3099,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P20" s="31">
         <v>43278</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="6">
         <v>14</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
@@ -3154,20 +3148,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P21" s="31">
         <v>43279</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="6">
         <v>15</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="6" t="s">
         <v>29</v>
       </c>
@@ -3203,20 +3197,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P22" s="31">
         <v>43280</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="6">
         <v>16</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="51" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="29" t="s">
@@ -3246,20 +3240,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P23" s="31">
         <v>43281</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="6">
         <v>17</v>
       </c>
-      <c r="C24" s="41"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="29" t="s">
         <v>45</v>
       </c>
@@ -3287,20 +3281,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P24" s="31">
         <v>43282</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="6">
         <v>18</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="29" t="s">
         <v>45</v>
       </c>
@@ -3328,20 +3322,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P25" s="31">
         <v>43283</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="6">
         <v>19</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="29" t="s">
         <v>45</v>
       </c>
@@ -3369,20 +3363,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P26" s="31">
         <v>43284</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="6">
         <v>20</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="29" t="s">
         <v>45</v>
       </c>
@@ -3414,7 +3408,7 @@
         <v>43285</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3440,25 +3434,25 @@
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.7"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.71875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.38671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.609375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="14" max="14" width="8.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="18" thickBot="1"/>
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14">
       <c r="B2" s="19" t="s">
         <v>98</v>
@@ -3483,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18" thickBot="1">
+    <row r="5" spans="2:14" ht="17" thickBot="1">
       <c r="B5" s="22" t="s">
         <v>101</v>
       </c>
@@ -3491,7 +3485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="36" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="7" spans="2:14" s="36" customFormat="1" ht="20.45" customHeight="1">
       <c r="B7" s="32" t="s">
         <v>2</v>
       </c>
@@ -3505,38 +3499,38 @@
         <v>113</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="K7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="N7" s="32" t="s">
         <v>175</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="30">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="52" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -3546,7 +3540,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>89</v>
@@ -3565,7 +3559,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M8" s="31">
         <v>43266</v>
@@ -3578,7 +3572,7 @@
       <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="30" t="s">
         <v>104</v>
       </c>
@@ -3586,7 +3580,7 @@
         <v>115</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>89</v>
@@ -3605,20 +3599,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M9" s="31">
         <v>43267</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="30">
         <v>3</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="30" t="s">
         <v>105</v>
       </c>
@@ -3626,7 +3620,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>91</v>
@@ -3645,20 +3639,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M10" s="31">
         <v>43268</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="30">
         <v>4</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="30" t="s">
         <v>106</v>
       </c>
@@ -3666,7 +3660,7 @@
         <v>114</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>91</v>
@@ -3685,20 +3679,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M11" s="31">
         <v>43269</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="30">
         <v>5</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="30" t="s">
         <v>107</v>
       </c>
@@ -3706,7 +3700,7 @@
         <v>116</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>93</v>
@@ -3725,20 +3719,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M12" s="31">
         <v>43270</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="30">
         <v>6</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="30" t="s">
         <v>108</v>
       </c>
@@ -3746,7 +3740,7 @@
         <v>116</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>93</v>
@@ -3765,20 +3759,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M13" s="31">
         <v>43271</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="30">
         <v>7</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="30" t="s">
         <v>109</v>
       </c>
@@ -3786,7 +3780,7 @@
         <v>116</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>89</v>
@@ -3805,20 +3799,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M14" s="31">
         <v>43272</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="30">
         <v>8</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="30" t="s">
         <v>110</v>
       </c>
@@ -3826,7 +3820,7 @@
         <v>116</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>89</v>
@@ -3845,20 +3839,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M15" s="31">
         <v>43273</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="30">
         <v>9</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="30" t="s">
         <v>111</v>
       </c>
@@ -3866,7 +3860,7 @@
         <v>116</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>89</v>
@@ -3885,20 +3879,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M16" s="31">
         <v>43274</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="30">
         <v>10</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="30" t="s">
         <v>112</v>
       </c>
@@ -3906,7 +3900,7 @@
         <v>116</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>89</v>
@@ -3925,20 +3919,20 @@
         <v>VAT 별도</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M17" s="31">
         <v>43275</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="30">
         <v>11</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="30" t="s">
         <v>24</v>
       </c>
@@ -3946,7 +3940,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>89</v>
@@ -3965,7 +3959,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M18" s="31">
         <v>43276</v>
@@ -3978,7 +3972,7 @@
       <c r="B19" s="30">
         <v>12</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="30" t="s">
         <v>75</v>
       </c>
@@ -3986,7 +3980,7 @@
         <v>116</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>89</v>
@@ -4005,7 +3999,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M19" s="31">
         <v>43277</v>
@@ -4018,7 +4012,7 @@
       <c r="B20" s="30">
         <v>13</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="23" t="s">
         <v>117</v>
       </c>
@@ -4026,7 +4020,7 @@
         <v>116</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>91</v>
@@ -4045,7 +4039,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M20" s="31">
         <v>43278</v>
@@ -4058,7 +4052,7 @@
       <c r="B21" s="30">
         <v>14</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="23" t="s">
         <v>118</v>
       </c>
@@ -4066,7 +4060,7 @@
         <v>116</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>89</v>
@@ -4085,7 +4079,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M21" s="31">
         <v>43279</v>
@@ -4098,15 +4092,15 @@
       <c r="B22" s="30">
         <v>15</v>
       </c>
-      <c r="C22" s="42"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>89</v>
@@ -4125,7 +4119,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M22" s="31">
         <v>43280</v>
@@ -4138,15 +4132,15 @@
       <c r="B23" s="30">
         <v>16</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>91</v>
@@ -4165,7 +4159,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M23" s="31">
         <v>43281</v>
@@ -4178,15 +4172,15 @@
       <c r="B24" s="30">
         <v>17</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>91</v>
@@ -4205,7 +4199,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M24" s="31">
         <v>43282</v>
@@ -4218,15 +4212,15 @@
       <c r="B25" s="30">
         <v>18</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>89</v>
@@ -4245,7 +4239,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M25" s="31">
         <v>43283</v>
@@ -4258,15 +4252,15 @@
       <c r="B26" s="30">
         <v>19</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>89</v>
@@ -4285,7 +4279,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M26" s="31">
         <v>43284</v>
@@ -4298,15 +4292,15 @@
       <c r="B27" s="30">
         <v>20</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>89</v>
@@ -4336,15 +4330,15 @@
       <c r="B28" s="30">
         <v>21</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>89</v>
@@ -4374,15 +4368,15 @@
       <c r="B29" s="30">
         <v>22</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>89</v>
@@ -4412,15 +4406,15 @@
       <c r="B30" s="30">
         <v>23</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>89</v>
@@ -4450,15 +4444,15 @@
       <c r="B31" s="30">
         <v>24</v>
       </c>
-      <c r="C31" s="42"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>89</v>
@@ -4488,15 +4482,15 @@
       <c r="B32" s="30">
         <v>25</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>89</v>
@@ -4526,15 +4520,15 @@
       <c r="B33" s="30">
         <v>26</v>
       </c>
-      <c r="C33" s="42"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>89</v>
@@ -4564,15 +4558,15 @@
       <c r="B34" s="30">
         <v>27</v>
       </c>
-      <c r="C34" s="42"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>89</v>
@@ -4602,15 +4596,15 @@
       <c r="B35" s="30">
         <v>28</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>89</v>
@@ -4640,15 +4634,15 @@
       <c r="B36" s="30">
         <v>29</v>
       </c>
-      <c r="C36" s="42"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>89</v>
@@ -4678,15 +4672,15 @@
       <c r="B37" s="30">
         <v>30</v>
       </c>
-      <c r="C37" s="42"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>89</v>
@@ -4716,15 +4710,15 @@
       <c r="B38" s="30">
         <v>31</v>
       </c>
-      <c r="C38" s="42"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>89</v>
@@ -4754,15 +4748,15 @@
       <c r="B39" s="30">
         <v>32</v>
       </c>
-      <c r="C39" s="42"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>89</v>
@@ -4792,15 +4786,15 @@
       <c r="B40" s="30">
         <v>33</v>
       </c>
-      <c r="C40" s="42"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>89</v>
@@ -4830,15 +4824,15 @@
       <c r="B41" s="30">
         <v>34</v>
       </c>
-      <c r="C41" s="42"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G41" s="30" t="s">
         <v>89</v>
@@ -4868,15 +4862,15 @@
       <c r="B42" s="30">
         <v>35</v>
       </c>
-      <c r="C42" s="42"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>89</v>
@@ -4906,15 +4900,15 @@
       <c r="B43" s="30">
         <v>36</v>
       </c>
-      <c r="C43" s="42"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" s="30" t="s">
         <v>89</v>
@@ -4944,15 +4938,15 @@
       <c r="B44" s="30">
         <v>37</v>
       </c>
-      <c r="C44" s="42"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>89</v>
@@ -4982,15 +4976,15 @@
       <c r="B45" s="30">
         <v>38</v>
       </c>
-      <c r="C45" s="42"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>89</v>
@@ -5020,15 +5014,15 @@
       <c r="B46" s="30">
         <v>39</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>89</v>
@@ -5058,7 +5052,7 @@
       <c r="B47" s="30">
         <v>40</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="51" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -5068,7 +5062,7 @@
         <v>116</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>93</v>
@@ -5098,7 +5092,7 @@
       <c r="B48" s="30">
         <v>41</v>
       </c>
-      <c r="C48" s="41"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="25" t="s">
         <v>120</v>
       </c>
@@ -5106,7 +5100,7 @@
         <v>116</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>93</v>
@@ -5136,7 +5130,7 @@
       <c r="B49" s="30">
         <v>42</v>
       </c>
-      <c r="C49" s="41"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="25" t="s">
         <v>121</v>
       </c>
@@ -5144,7 +5138,7 @@
         <v>116</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" s="30" t="s">
         <v>93</v>
@@ -5174,7 +5168,7 @@
       <c r="B50" s="30">
         <v>43</v>
       </c>
-      <c r="C50" s="41"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="25" t="s">
         <v>122</v>
       </c>
@@ -5182,7 +5176,7 @@
         <v>116</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>93</v>
@@ -5212,7 +5206,7 @@
       <c r="B51" s="30">
         <v>44</v>
       </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="25" t="s">
         <v>123</v>
       </c>
@@ -5220,7 +5214,7 @@
         <v>116</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" s="30" t="s">
         <v>93</v>
@@ -5250,17 +5244,17 @@
       <c r="B52" s="30">
         <v>45</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>128</v>
+      <c r="C52" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>93</v>
@@ -5290,15 +5284,15 @@
       <c r="B53" s="30">
         <v>46</v>
       </c>
-      <c r="C53" s="41"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="30" t="s">
         <v>93</v>
@@ -5328,15 +5322,15 @@
       <c r="B54" s="30">
         <v>47</v>
       </c>
-      <c r="C54" s="41"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" s="30" t="s">
         <v>93</v>
@@ -5366,15 +5360,15 @@
       <c r="B55" s="30">
         <v>48</v>
       </c>
-      <c r="C55" s="41"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" s="30" t="s">
         <v>93</v>
@@ -5404,15 +5398,15 @@
       <c r="B56" s="30">
         <v>49</v>
       </c>
-      <c r="C56" s="41"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="30" t="s">
         <v>93</v>
@@ -5442,17 +5436,17 @@
       <c r="B57" s="30">
         <v>50</v>
       </c>
-      <c r="C57" s="41" t="s">
-        <v>129</v>
+      <c r="C57" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G57" s="30" t="s">
         <v>93</v>
@@ -5482,15 +5476,15 @@
       <c r="B58" s="30">
         <v>51</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G58" s="30" t="s">
         <v>93</v>
@@ -5520,15 +5514,15 @@
       <c r="B59" s="30">
         <v>52</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G59" s="30" t="s">
         <v>93</v>
@@ -5558,15 +5552,15 @@
       <c r="B60" s="30">
         <v>53</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>93</v>
@@ -5596,15 +5590,15 @@
       <c r="B61" s="30">
         <v>54</v>
       </c>
-      <c r="C61" s="41"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61" s="30" t="s">
         <v>93</v>
@@ -5655,25 +5649,25 @@
       <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.7"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.71875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.38671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.609375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="14" max="14" width="8.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="18" thickBot="1"/>
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14">
       <c r="B2" s="19" t="s">
         <v>98</v>
@@ -5698,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18" thickBot="1">
+    <row r="5" spans="2:14" ht="17" thickBot="1">
       <c r="B5" s="22" t="s">
         <v>93</v>
       </c>
@@ -5717,51 +5711,51 @@
         <v>102</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="K7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="N7" s="32" t="s">
         <v>175</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="52" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>89</v>
@@ -5780,7 +5774,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M8" s="31">
         <v>43266</v>
@@ -5791,13 +5785,13 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="8"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>89</v>
@@ -5816,24 +5810,24 @@
         <v>VAT 별도</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M9" s="31">
         <v>43267</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="8"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>89</v>
@@ -5852,24 +5846,24 @@
         <v>VAT 별도</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M10" s="31">
         <v>43268</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="8"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>89</v>
@@ -5888,24 +5882,24 @@
         <v>VAT 별도</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M11" s="31">
         <v>43269</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="8"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>89</v>
@@ -5924,28 +5918,28 @@
         <v>VAT 별도</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M12" s="31">
         <v>43270</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42" t="s">
-        <v>164</v>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
+        <v>163</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>89</v>
@@ -5964,26 +5958,26 @@
         <v>VAT 별도</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M13" s="31">
         <v>43271</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>89</v>
@@ -6002,26 +5996,26 @@
         <v>VAT 별도</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M14" s="31">
         <v>43272</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>89</v>
@@ -6040,26 +6034,26 @@
         <v>VAT 별도</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M15" s="31">
         <v>43273</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="8">
         <v>5</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>89</v>
@@ -6078,26 +6072,26 @@
         <v>VAT 별도</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M16" s="31">
         <v>43274</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="8">
         <v>6</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>89</v>
@@ -6116,28 +6110,28 @@
         <v>VAT 별도</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M17" s="31">
         <v>43275</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="8">
         <v>7</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
-        <v>165</v>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52" t="s">
+        <v>164</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>89</v>
@@ -6156,7 +6150,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M18" s="31">
         <v>43276</v>
@@ -6169,13 +6163,13 @@
       <c r="B19" s="8">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>89</v>
@@ -6194,7 +6188,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M19" s="31">
         <v>43277</v>
@@ -6207,13 +6201,13 @@
       <c r="B20" s="8">
         <v>9</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>89</v>
@@ -6232,7 +6226,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M20" s="31">
         <v>43278</v>
@@ -6245,13 +6239,13 @@
       <c r="B21" s="8">
         <v>10</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>89</v>
@@ -6270,7 +6264,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M21" s="31">
         <v>43279</v>
@@ -6283,13 +6277,13 @@
       <c r="B22" s="8">
         <v>11</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>89</v>
@@ -6308,7 +6302,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M22" s="31">
         <v>43280</v>
@@ -6321,15 +6315,15 @@
       <c r="B23" s="8">
         <v>12</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42" t="s">
-        <v>166</v>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52" t="s">
+        <v>165</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>89</v>
@@ -6348,7 +6342,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M23" s="31">
         <v>43281</v>
@@ -6361,13 +6355,13 @@
       <c r="B24" s="8">
         <v>13</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>89</v>
@@ -6386,7 +6380,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M24" s="31">
         <v>43282</v>
@@ -6397,13 +6391,13 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="8"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>89</v>
@@ -6422,7 +6416,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M25" s="31">
         <v>43283</v>
@@ -6433,13 +6427,13 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="8"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>89</v>
@@ -6458,7 +6452,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M26" s="31">
         <v>43284</v>
@@ -6469,13 +6463,13 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="8"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>89</v>
@@ -6503,15 +6497,15 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="8"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42" t="s">
-        <v>167</v>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52" t="s">
+        <v>166</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>89</v>
@@ -6541,13 +6535,13 @@
       <c r="B29" s="8">
         <v>14</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>89</v>
@@ -6577,13 +6571,13 @@
       <c r="B30" s="8">
         <v>15</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>89</v>
@@ -6613,13 +6607,13 @@
       <c r="B31" s="8">
         <v>16</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>89</v>
@@ -6649,13 +6643,13 @@
       <c r="B32" s="8">
         <v>17</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>89</v>
@@ -6685,15 +6679,15 @@
       <c r="B33" s="8">
         <v>18</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42" t="s">
-        <v>168</v>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52" t="s">
+        <v>167</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>89</v>
@@ -6723,13 +6717,13 @@
       <c r="B34" s="8">
         <v>19</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>89</v>
@@ -6759,13 +6753,13 @@
       <c r="B35" s="8">
         <v>20</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>89</v>
@@ -6795,13 +6789,13 @@
       <c r="B36" s="8">
         <v>21</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>89</v>
@@ -6831,13 +6825,13 @@
       <c r="B37" s="8">
         <v>22</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>89</v>
@@ -6867,15 +6861,15 @@
       <c r="B38" s="8">
         <v>23</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42" t="s">
-        <v>164</v>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52" t="s">
+        <v>163</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>89</v>
@@ -6905,13 +6899,13 @@
       <c r="B39" s="8">
         <v>24</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>89</v>
@@ -6941,13 +6935,13 @@
       <c r="B40" s="8">
         <v>25</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>89</v>
@@ -6977,13 +6971,13 @@
       <c r="B41" s="8">
         <v>26</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>89</v>
@@ -7013,13 +7007,13 @@
       <c r="B42" s="8">
         <v>27</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>89</v>
@@ -7049,15 +7043,15 @@
       <c r="B43" s="8">
         <v>28</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42" t="s">
-        <v>169</v>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>89</v>
@@ -7087,13 +7081,13 @@
       <c r="B44" s="8">
         <v>29</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>89</v>
@@ -7123,13 +7117,13 @@
       <c r="B45" s="8">
         <v>30</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>89</v>
@@ -7159,13 +7153,13 @@
       <c r="B46" s="8">
         <v>31</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>89</v>
@@ -7195,13 +7189,13 @@
       <c r="B47" s="8">
         <v>32</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>89</v>
@@ -7231,15 +7225,15 @@
       <c r="B48" s="8">
         <v>33</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42" t="s">
-        <v>169</v>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>89</v>
@@ -7269,13 +7263,13 @@
       <c r="B49" s="8">
         <v>34</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>89</v>
@@ -7305,13 +7299,13 @@
       <c r="B50" s="8">
         <v>35</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>89</v>
@@ -7341,13 +7335,13 @@
       <c r="B51" s="8">
         <v>36</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>89</v>
@@ -7377,13 +7371,13 @@
       <c r="B52" s="8">
         <v>37</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>89</v>
@@ -7413,15 +7407,15 @@
       <c r="B53" s="8">
         <v>38</v>
       </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42" t="s">
-        <v>169</v>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>89</v>
@@ -7451,13 +7445,13 @@
       <c r="B54" s="8">
         <v>39</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
       <c r="E54" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>89</v>
@@ -7487,15 +7481,15 @@
       <c r="B55" s="8">
         <v>40</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="42"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>89</v>
@@ -7525,13 +7519,13 @@
       <c r="B56" s="8">
         <v>41</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="42"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>89</v>
@@ -7561,13 +7555,13 @@
       <c r="B57" s="8">
         <v>42</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="42"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>89</v>
@@ -7597,15 +7591,15 @@
       <c r="B58" s="8">
         <v>43</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="42" t="s">
-        <v>169</v>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>89</v>
@@ -7635,13 +7629,13 @@
       <c r="B59" s="8">
         <v>44</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="42"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>89</v>
@@ -7671,15 +7665,15 @@
       <c r="B60" s="8">
         <v>45</v>
       </c>
-      <c r="C60" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="42"/>
+      <c r="C60" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="52"/>
       <c r="E60" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>89</v>
@@ -7709,13 +7703,13 @@
       <c r="B61" s="8">
         <v>46</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>89</v>
@@ -7745,13 +7739,13 @@
       <c r="B62" s="8">
         <v>47</v>
       </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="42"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>89</v>
@@ -7781,15 +7775,15 @@
       <c r="B63" s="8">
         <v>48</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="42" t="s">
-        <v>169</v>
+      <c r="C63" s="51"/>
+      <c r="D63" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>89</v>
@@ -7819,13 +7813,13 @@
       <c r="B64" s="8">
         <v>49</v>
       </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="42"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>89</v>
@@ -7855,15 +7849,15 @@
       <c r="B65" s="8">
         <v>50</v>
       </c>
-      <c r="C65" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="42"/>
+      <c r="C65" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="52"/>
       <c r="E65" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>89</v>
@@ -7893,13 +7887,13 @@
       <c r="B66" s="8">
         <v>51</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="42"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>89</v>
@@ -7929,13 +7923,13 @@
       <c r="B67" s="8">
         <v>52</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="42"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>89</v>
@@ -7965,15 +7959,15 @@
       <c r="B68" s="8">
         <v>53</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="42" t="s">
-        <v>169</v>
+      <c r="C68" s="51"/>
+      <c r="D68" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>89</v>
@@ -8003,13 +7997,13 @@
       <c r="B69" s="8">
         <v>54</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>89</v>
@@ -8039,13 +8033,13 @@
       <c r="B70" s="8">
         <v>55</v>
       </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="42"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>89</v>
@@ -8075,13 +8069,13 @@
       <c r="B71" s="8">
         <v>56</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="42"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>89</v>
@@ -8111,13 +8105,13 @@
       <c r="B72" s="8">
         <v>57</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="42"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>89</v>
@@ -8147,15 +8141,15 @@
       <c r="B73" s="8">
         <v>58</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="42" t="s">
-        <v>169</v>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>89</v>
@@ -8185,13 +8179,13 @@
       <c r="B74" s="8">
         <v>59</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="42"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>89</v>
@@ -8221,13 +8215,13 @@
       <c r="B75" s="8">
         <v>60</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="42"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>89</v>
@@ -8257,13 +8251,13 @@
       <c r="B76" s="8">
         <v>61</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>89</v>
@@ -8293,13 +8287,13 @@
       <c r="B77" s="8">
         <v>62</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="42"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>89</v>
@@ -8329,15 +8323,15 @@
       <c r="B78" s="8">
         <v>63</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="42" t="s">
-        <v>169</v>
+      <c r="C78" s="51"/>
+      <c r="D78" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>89</v>
@@ -8367,13 +8361,13 @@
       <c r="B79" s="8">
         <v>64</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>89</v>
@@ -8403,13 +8397,13 @@
       <c r="B80" s="8">
         <v>65</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>89</v>
@@ -8439,13 +8433,13 @@
       <c r="B81" s="8">
         <v>66</v>
       </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>89</v>
@@ -8475,13 +8469,13 @@
       <c r="B82" s="8">
         <v>67</v>
       </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="52"/>
       <c r="E82" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>89</v>
@@ -8511,15 +8505,15 @@
       <c r="B83" s="8">
         <v>68</v>
       </c>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42" t="s">
-        <v>169</v>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>89</v>
@@ -8549,13 +8543,13 @@
       <c r="B84" s="8">
         <v>69</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="42"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>89</v>
@@ -8585,13 +8579,13 @@
       <c r="B85" s="8">
         <v>70</v>
       </c>
-      <c r="C85" s="41"/>
-      <c r="D85" s="42"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>89</v>
@@ -8621,13 +8615,13 @@
       <c r="B86" s="8">
         <v>71</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="42"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>89</v>
@@ -8657,13 +8651,13 @@
       <c r="B87" s="8">
         <v>72</v>
       </c>
-      <c r="C87" s="41"/>
-      <c r="D87" s="42"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>89</v>
@@ -8693,15 +8687,15 @@
       <c r="B88" s="8">
         <v>73</v>
       </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="42" t="s">
-        <v>169</v>
+      <c r="C88" s="51"/>
+      <c r="D88" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>89</v>
@@ -8731,13 +8725,13 @@
       <c r="B89" s="8">
         <v>74</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="42"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>89</v>
@@ -8767,13 +8761,13 @@
       <c r="B90" s="8">
         <v>75</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="42"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>89</v>
@@ -8803,13 +8797,13 @@
       <c r="B91" s="8">
         <v>76</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="42"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>89</v>
@@ -8839,13 +8833,13 @@
       <c r="B92" s="8">
         <v>77</v>
       </c>
-      <c r="C92" s="41"/>
-      <c r="D92" s="42"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>89</v>
@@ -8875,15 +8869,15 @@
       <c r="B93" s="8">
         <v>78</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="42" t="s">
-        <v>169</v>
+      <c r="C93" s="51"/>
+      <c r="D93" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>89</v>
@@ -8913,13 +8907,13 @@
       <c r="B94" s="8">
         <v>79</v>
       </c>
-      <c r="C94" s="41"/>
-      <c r="D94" s="42"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>89</v>
@@ -8949,13 +8943,13 @@
       <c r="B95" s="8">
         <v>80</v>
       </c>
-      <c r="C95" s="41"/>
-      <c r="D95" s="42"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>89</v>
@@ -8985,13 +8979,13 @@
       <c r="B96" s="8">
         <v>81</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="42"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>89</v>
@@ -9021,13 +9015,13 @@
       <c r="B97" s="8">
         <v>82</v>
       </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="42"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>89</v>
@@ -9057,15 +9051,15 @@
       <c r="B98" s="8">
         <v>83</v>
       </c>
-      <c r="C98" s="41"/>
-      <c r="D98" s="42" t="s">
-        <v>169</v>
+      <c r="C98" s="51"/>
+      <c r="D98" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>89</v>
@@ -9095,13 +9089,13 @@
       <c r="B99" s="8">
         <v>84</v>
       </c>
-      <c r="C99" s="41"/>
-      <c r="D99" s="42"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>89</v>
@@ -9131,13 +9125,13 @@
       <c r="B100" s="8">
         <v>85</v>
       </c>
-      <c r="C100" s="41"/>
-      <c r="D100" s="42"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>89</v>
@@ -9167,13 +9161,13 @@
       <c r="B101" s="8">
         <v>86</v>
       </c>
-      <c r="C101" s="41"/>
-      <c r="D101" s="42"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>89</v>
@@ -9203,13 +9197,13 @@
       <c r="B102" s="8">
         <v>87</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="42"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>89</v>
@@ -9239,15 +9233,15 @@
       <c r="B103" s="8">
         <v>88</v>
       </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="42" t="s">
-        <v>169</v>
+      <c r="C103" s="51"/>
+      <c r="D103" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>89</v>
@@ -9277,13 +9271,13 @@
       <c r="B104" s="8">
         <v>89</v>
       </c>
-      <c r="C104" s="41"/>
-      <c r="D104" s="42"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>89</v>
@@ -9313,13 +9307,13 @@
       <c r="B105" s="8">
         <v>90</v>
       </c>
-      <c r="C105" s="41"/>
-      <c r="D105" s="42"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>89</v>
@@ -9349,13 +9343,13 @@
       <c r="B106" s="8">
         <v>91</v>
       </c>
-      <c r="C106" s="41"/>
-      <c r="D106" s="42"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="52"/>
       <c r="E106" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>89</v>
@@ -9385,13 +9379,13 @@
       <c r="B107" s="8">
         <v>92</v>
       </c>
-      <c r="C107" s="41"/>
-      <c r="D107" s="42"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>89</v>
@@ -9421,15 +9415,15 @@
       <c r="B108" s="8">
         <v>93</v>
       </c>
-      <c r="C108" s="41"/>
-      <c r="D108" s="42" t="s">
-        <v>169</v>
+      <c r="C108" s="51"/>
+      <c r="D108" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>89</v>
@@ -9459,13 +9453,13 @@
       <c r="B109" s="8">
         <v>94</v>
       </c>
-      <c r="C109" s="41"/>
-      <c r="D109" s="42"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>89</v>
@@ -9495,13 +9489,13 @@
       <c r="B110" s="8">
         <v>95</v>
       </c>
-      <c r="C110" s="41"/>
-      <c r="D110" s="42"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>89</v>
@@ -9531,13 +9525,13 @@
       <c r="B111" s="8">
         <v>96</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="42"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>89</v>
@@ -9567,13 +9561,13 @@
       <c r="B112" s="8">
         <v>97</v>
       </c>
-      <c r="C112" s="41"/>
-      <c r="D112" s="42"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>89</v>
@@ -9603,15 +9597,15 @@
       <c r="B113" s="8">
         <v>98</v>
       </c>
-      <c r="C113" s="41"/>
-      <c r="D113" s="42" t="s">
-        <v>169</v>
+      <c r="C113" s="51"/>
+      <c r="D113" s="52" t="s">
+        <v>168</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>89</v>
@@ -9641,13 +9635,13 @@
       <c r="B114" s="8">
         <v>99</v>
       </c>
-      <c r="C114" s="41"/>
-      <c r="D114" s="42"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="52"/>
       <c r="E114" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>89</v>
@@ -9677,13 +9671,13 @@
       <c r="B115" s="8">
         <v>100</v>
       </c>
-      <c r="C115" s="41"/>
-      <c r="D115" s="42"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="52"/>
       <c r="E115" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>89</v>
@@ -9713,13 +9707,13 @@
       <c r="B116" s="8">
         <v>101</v>
       </c>
-      <c r="C116" s="41"/>
-      <c r="D116" s="42"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="52"/>
       <c r="E116" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>89</v>
@@ -9749,13 +9743,13 @@
       <c r="B117" s="8">
         <v>102</v>
       </c>
-      <c r="C117" s="41"/>
-      <c r="D117" s="42"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="52"/>
       <c r="E117" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>89</v>
@@ -9783,6 +9777,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="C65:C117"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="D63:D67"/>
     <mergeCell ref="C8:C54"/>
     <mergeCell ref="C55:C59"/>
     <mergeCell ref="C60:C64"/>
@@ -9797,18 +9803,6 @@
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="D58:D62"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="C65:C117"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="D63:D67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/item.xlsx
+++ b/item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\gitExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNB_for_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91B302-1849-4D73-B1F2-3753FCBCA4E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BB5AE3-94DD-4EBD-A567-72CA8149B700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Char" sheetId="5" r:id="rId3"/>
     <sheet name="Spine(ani)" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="181">
   <si>
     <t>Scene Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,6 +772,10 @@
   </si>
   <si>
     <t>진행필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난다요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,12 +1275,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1286,10 +1284,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,10 +1296,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1599,18 +1603,18 @@
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
     <col min="2" max="2" width="21" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.38671875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="14" customWidth="1"/>
     <col min="8" max="8" width="21" style="13" customWidth="1"/>
-    <col min="9" max="9" width="17.38671875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" style="14" customWidth="1"/>
     <col min="11" max="11" width="21" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.38671875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -1624,50 +1628,52 @@
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="43"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="45"/>
+      <c r="H2" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="47"/>
+      <c r="K2" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
-    </row>
-    <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="41" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="5" spans="2:12" ht="18" thickBot="1">
+      <c r="B5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="40"/>
+      <c r="E5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="F5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="K5" s="41" t="s">
+      <c r="I5" s="40"/>
+      <c r="K5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="9" t="s">
@@ -1723,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1">
+    <row r="8" spans="2:12" ht="18" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>97</v>
       </c>
@@ -1752,23 +1758,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="41" t="s">
+    <row r="10" spans="2:12" ht="18" thickBot="1">
+      <c r="B10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="40"/>
+      <c r="E10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="H10" s="41" t="s">
+      <c r="F10" s="40"/>
+      <c r="H10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="K10" s="41" t="s">
+      <c r="I10" s="40"/>
+      <c r="K10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
@@ -1824,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="17" thickBot="1">
+    <row r="13" spans="2:12" ht="18" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1853,23 +1859,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="17" thickBot="1">
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="2:12" ht="18" thickBot="1">
+      <c r="B15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="40"/>
+      <c r="E15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="H15" s="43" t="s">
+      <c r="F15" s="40"/>
+      <c r="H15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="K15" s="43" t="s">
+      <c r="I15" s="40"/>
+      <c r="K15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="42"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
@@ -1952,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="17" thickBot="1">
+    <row r="19" spans="2:12" ht="18" thickBot="1">
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
@@ -1980,37 +1986,37 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="43"/>
-      <c r="C21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="42"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6:C7">
@@ -2362,27 +2368,27 @@
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.71875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.27734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.38671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1"/>
+    <row r="1" spans="2:17" ht="18" thickBot="1"/>
     <row r="2" spans="2:17">
       <c r="B2" s="19" t="s">
         <v>98</v>
@@ -2410,7 +2416,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:17" ht="17" thickBot="1">
+    <row r="5" spans="2:17" ht="18" thickBot="1">
       <c r="B5" s="22" t="s">
         <v>101</v>
       </c>
@@ -3434,25 +3440,25 @@
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.71875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.38671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.71875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.609375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.71875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="1" spans="2:14" ht="18" thickBot="1"/>
     <row r="2" spans="2:14">
       <c r="B2" s="19" t="s">
         <v>98</v>
@@ -3477,7 +3483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="17" thickBot="1">
+    <row r="5" spans="2:14" ht="18" thickBot="1">
       <c r="B5" s="22" t="s">
         <v>101</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="36" customFormat="1" ht="20.45" customHeight="1">
+    <row r="7" spans="2:14" s="36" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="B7" s="32" t="s">
         <v>2</v>
       </c>
@@ -5649,25 +5655,25 @@
       <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.71875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.38671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.71875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.609375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.71875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="1" spans="2:14" ht="18" thickBot="1"/>
     <row r="2" spans="2:14">
       <c r="B2" s="19" t="s">
         <v>98</v>
@@ -5692,7 +5698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="17" thickBot="1">
+    <row r="5" spans="2:14" ht="18" thickBot="1">
       <c r="B5" s="22" t="s">
         <v>93</v>
       </c>
@@ -9777,18 +9783,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="C65:C117"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="D63:D67"/>
     <mergeCell ref="C8:C54"/>
     <mergeCell ref="C55:C59"/>
     <mergeCell ref="C60:C64"/>
@@ -9803,6 +9797,18 @@
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="C65:C117"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="D63:D67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/item.xlsx
+++ b/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\gitExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91B302-1849-4D73-B1F2-3753FCBCA4E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A00AAA7-4EC2-4DFE-B926-259A70430DFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,10 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>outsourcing_Spin(ani)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>outsourcing_Sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,6 +768,10 @@
   </si>
   <si>
     <t>진행필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outsourcing_new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,12 +1271,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1286,10 +1280,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,10 +1292,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1596,7 +1596,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1624,50 +1624,50 @@
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="45"/>
+      <c r="H2" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="K2" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="K2" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="40"/>
+      <c r="E5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="F5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="K5" s="41" t="s">
+      <c r="I5" s="40"/>
+      <c r="K5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="9" t="s">
@@ -1753,22 +1753,22 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="E10" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="H10" s="41" t="s">
+      <c r="C10" s="40"/>
+      <c r="E10" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="H10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="K10" s="41" t="s">
+      <c r="I10" s="40"/>
+      <c r="K10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
@@ -1854,22 +1854,22 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="17" thickBot="1">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="40"/>
+      <c r="E15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="H15" s="43" t="s">
+      <c r="F15" s="40"/>
+      <c r="H15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="K15" s="43" t="s">
+      <c r="I15" s="40"/>
+      <c r="K15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="42"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
@@ -1889,7 +1889,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="16">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>41</v>
@@ -1922,7 +1922,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="16">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -1934,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="16">
         <v>1</v>
@@ -1980,37 +1980,37 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="43"/>
-      <c r="C21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="42"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6:C7">
@@ -2448,25 +2448,25 @@
         <v>14</v>
       </c>
       <c r="K7" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="N7" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="O7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="Q7" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -2511,13 +2511,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P8" s="31">
         <v>43266</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:17">
@@ -2560,13 +2560,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P9" s="31">
         <v>43267</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -2609,13 +2609,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P10" s="31">
         <v>43268</v>
       </c>
       <c r="Q10" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -2658,13 +2658,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P11" s="31">
         <v>43269</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -2707,13 +2707,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P12" s="31">
         <v>43270</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -2756,13 +2756,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P13" s="31">
         <v>43271</v>
       </c>
       <c r="Q13" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -2805,13 +2805,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P14" s="31">
         <v>43272</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -2854,13 +2854,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P15" s="31">
         <v>43273</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:17">
@@ -2903,13 +2903,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P16" s="31">
         <v>43274</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:17">
@@ -2952,13 +2952,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P17" s="31">
         <v>43275</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3001,13 +3001,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P18" s="31">
         <v>43276</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:17">
@@ -3050,13 +3050,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P19" s="31">
         <v>43277</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:17">
@@ -3099,13 +3099,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P20" s="31">
         <v>43278</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -3148,13 +3148,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P21" s="31">
         <v>43279</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3197,13 +3197,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P22" s="31">
         <v>43280</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3240,13 +3240,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P23" s="31">
         <v>43281</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3281,13 +3281,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P24" s="31">
         <v>43282</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3322,13 +3322,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P25" s="31">
         <v>43283</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3363,13 +3363,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P26" s="31">
         <v>43284</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3408,7 +3408,7 @@
         <v>43285</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3499,31 +3499,31 @@
         <v>113</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="K7" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="N7" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -3540,7 +3540,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>89</v>
@@ -3559,7 +3559,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M8" s="31">
         <v>43266</v>
@@ -3580,7 +3580,7 @@
         <v>115</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>89</v>
@@ -3599,13 +3599,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M9" s="31">
         <v>43267</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -3620,7 +3620,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>91</v>
@@ -3639,13 +3639,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M10" s="31">
         <v>43268</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -3660,7 +3660,7 @@
         <v>114</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>91</v>
@@ -3679,13 +3679,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M11" s="31">
         <v>43269</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -3700,7 +3700,7 @@
         <v>116</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>93</v>
@@ -3719,13 +3719,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M12" s="31">
         <v>43270</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -3740,7 +3740,7 @@
         <v>116</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>93</v>
@@ -3759,13 +3759,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M13" s="31">
         <v>43271</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:14">
@@ -3780,7 +3780,7 @@
         <v>116</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>89</v>
@@ -3799,13 +3799,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M14" s="31">
         <v>43272</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -3820,7 +3820,7 @@
         <v>116</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>89</v>
@@ -3839,13 +3839,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M15" s="31">
         <v>43273</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:14">
@@ -3860,7 +3860,7 @@
         <v>116</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>89</v>
@@ -3879,13 +3879,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M16" s="31">
         <v>43274</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -3900,7 +3900,7 @@
         <v>116</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>89</v>
@@ -3919,13 +3919,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M17" s="31">
         <v>43275</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -3940,7 +3940,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>89</v>
@@ -3959,7 +3959,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M18" s="31">
         <v>43276</v>
@@ -3980,7 +3980,7 @@
         <v>116</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>89</v>
@@ -3999,7 +3999,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M19" s="31">
         <v>43277</v>
@@ -4020,7 +4020,7 @@
         <v>116</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>91</v>
@@ -4039,7 +4039,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M20" s="31">
         <v>43278</v>
@@ -4060,7 +4060,7 @@
         <v>116</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>89</v>
@@ -4079,7 +4079,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M21" s="31">
         <v>43279</v>
@@ -4094,13 +4094,13 @@
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>89</v>
@@ -4119,7 +4119,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M22" s="31">
         <v>43280</v>
@@ -4134,13 +4134,13 @@
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>91</v>
@@ -4159,7 +4159,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M23" s="31">
         <v>43281</v>
@@ -4174,13 +4174,13 @@
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>91</v>
@@ -4199,7 +4199,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M24" s="31">
         <v>43282</v>
@@ -4214,13 +4214,13 @@
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>89</v>
@@ -4239,7 +4239,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M25" s="31">
         <v>43283</v>
@@ -4254,13 +4254,13 @@
       </c>
       <c r="C26" s="52"/>
       <c r="D26" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>89</v>
@@ -4279,7 +4279,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M26" s="31">
         <v>43284</v>
@@ -4294,13 +4294,13 @@
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>89</v>
@@ -4332,13 +4332,13 @@
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>89</v>
@@ -4370,13 +4370,13 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>89</v>
@@ -4408,13 +4408,13 @@
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>89</v>
@@ -4446,13 +4446,13 @@
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>89</v>
@@ -4484,13 +4484,13 @@
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>89</v>
@@ -4522,13 +4522,13 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>89</v>
@@ -4560,13 +4560,13 @@
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>89</v>
@@ -4598,13 +4598,13 @@
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>89</v>
@@ -4636,13 +4636,13 @@
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>89</v>
@@ -4674,13 +4674,13 @@
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>89</v>
@@ -4712,13 +4712,13 @@
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>89</v>
@@ -4750,13 +4750,13 @@
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>89</v>
@@ -4788,13 +4788,13 @@
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>89</v>
@@ -4826,13 +4826,13 @@
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="30" t="s">
         <v>89</v>
@@ -4864,13 +4864,13 @@
       </c>
       <c r="C42" s="52"/>
       <c r="D42" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>89</v>
@@ -4902,13 +4902,13 @@
       </c>
       <c r="C43" s="52"/>
       <c r="D43" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" s="30" t="s">
         <v>89</v>
@@ -4940,13 +4940,13 @@
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>89</v>
@@ -4978,13 +4978,13 @@
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>89</v>
@@ -5016,13 +5016,13 @@
       </c>
       <c r="C46" s="52"/>
       <c r="D46" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>89</v>
@@ -5062,7 +5062,7 @@
         <v>116</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>93</v>
@@ -5100,7 +5100,7 @@
         <v>116</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>93</v>
@@ -5138,7 +5138,7 @@
         <v>116</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G49" s="30" t="s">
         <v>93</v>
@@ -5176,7 +5176,7 @@
         <v>116</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>93</v>
@@ -5214,7 +5214,7 @@
         <v>116</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G51" s="30" t="s">
         <v>93</v>
@@ -5245,16 +5245,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>93</v>
@@ -5286,13 +5286,13 @@
       </c>
       <c r="C53" s="51"/>
       <c r="D53" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G53" s="30" t="s">
         <v>93</v>
@@ -5324,13 +5324,13 @@
       </c>
       <c r="C54" s="51"/>
       <c r="D54" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54" s="30" t="s">
         <v>93</v>
@@ -5362,13 +5362,13 @@
       </c>
       <c r="C55" s="51"/>
       <c r="D55" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="30" t="s">
         <v>93</v>
@@ -5400,13 +5400,13 @@
       </c>
       <c r="C56" s="51"/>
       <c r="D56" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="30" t="s">
         <v>93</v>
@@ -5437,16 +5437,16 @@
         <v>50</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E57" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G57" s="30" t="s">
         <v>93</v>
@@ -5478,13 +5478,13 @@
       </c>
       <c r="C58" s="51"/>
       <c r="D58" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G58" s="30" t="s">
         <v>93</v>
@@ -5516,13 +5516,13 @@
       </c>
       <c r="C59" s="51"/>
       <c r="D59" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G59" s="30" t="s">
         <v>93</v>
@@ -5554,13 +5554,13 @@
       </c>
       <c r="C60" s="51"/>
       <c r="D60" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>93</v>
@@ -5592,13 +5592,13 @@
       </c>
       <c r="C61" s="51"/>
       <c r="D61" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G61" s="30" t="s">
         <v>93</v>
@@ -5711,34 +5711,34 @@
         <v>102</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="K7" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="N7" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -5752,10 +5752,10 @@
         <v>103</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>89</v>
@@ -5774,7 +5774,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M8" s="31">
         <v>43266</v>
@@ -5788,10 +5788,10 @@
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>89</v>
@@ -5810,13 +5810,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M9" s="31">
         <v>43267</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -5824,10 +5824,10 @@
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>89</v>
@@ -5846,13 +5846,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M10" s="31">
         <v>43268</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -5860,10 +5860,10 @@
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>89</v>
@@ -5882,13 +5882,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M11" s="31">
         <v>43269</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -5896,10 +5896,10 @@
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>89</v>
@@ -5918,13 +5918,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M12" s="31">
         <v>43270</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -5933,13 +5933,13 @@
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>89</v>
@@ -5958,13 +5958,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M13" s="31">
         <v>43271</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:14">
@@ -5974,10 +5974,10 @@
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>89</v>
@@ -5996,13 +5996,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M14" s="31">
         <v>43272</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -6012,10 +6012,10 @@
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
       <c r="E15" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>89</v>
@@ -6034,13 +6034,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M15" s="31">
         <v>43273</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:14">
@@ -6050,10 +6050,10 @@
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
       <c r="E16" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>89</v>
@@ -6072,13 +6072,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M16" s="31">
         <v>43274</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -6088,10 +6088,10 @@
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
       <c r="E17" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>89</v>
@@ -6110,13 +6110,13 @@
         <v>VAT 별도</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M17" s="31">
         <v>43275</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -6125,13 +6125,13 @@
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>89</v>
@@ -6150,7 +6150,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M18" s="31">
         <v>43276</v>
@@ -6166,10 +6166,10 @@
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
       <c r="E19" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>89</v>
@@ -6188,7 +6188,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M19" s="31">
         <v>43277</v>
@@ -6204,10 +6204,10 @@
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
       <c r="E20" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>89</v>
@@ -6226,7 +6226,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M20" s="31">
         <v>43278</v>
@@ -6242,10 +6242,10 @@
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
       <c r="E21" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>89</v>
@@ -6264,7 +6264,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M21" s="31">
         <v>43279</v>
@@ -6280,10 +6280,10 @@
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
       <c r="E22" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>89</v>
@@ -6302,7 +6302,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M22" s="31">
         <v>43280</v>
@@ -6317,13 +6317,13 @@
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>89</v>
@@ -6342,7 +6342,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M23" s="31">
         <v>43281</v>
@@ -6358,10 +6358,10 @@
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>89</v>
@@ -6380,7 +6380,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M24" s="31">
         <v>43282</v>
@@ -6394,10 +6394,10 @@
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>89</v>
@@ -6416,7 +6416,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M25" s="31">
         <v>43283</v>
@@ -6430,10 +6430,10 @@
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
       <c r="E26" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>89</v>
@@ -6452,7 +6452,7 @@
         <v>VAT 별도</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M26" s="31">
         <v>43284</v>
@@ -6466,10 +6466,10 @@
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
       <c r="E27" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>89</v>
@@ -6499,13 +6499,13 @@
       <c r="B28" s="8"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>89</v>
@@ -6538,10 +6538,10 @@
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>89</v>
@@ -6574,10 +6574,10 @@
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
       <c r="E30" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>89</v>
@@ -6610,10 +6610,10 @@
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
       <c r="E31" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>89</v>
@@ -6646,10 +6646,10 @@
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
       <c r="E32" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>89</v>
@@ -6681,13 +6681,13 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>89</v>
@@ -6720,10 +6720,10 @@
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
       <c r="E34" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>89</v>
@@ -6756,10 +6756,10 @@
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
       <c r="E35" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>89</v>
@@ -6792,10 +6792,10 @@
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
       <c r="E36" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>89</v>
@@ -6828,10 +6828,10 @@
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
       <c r="E37" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>89</v>
@@ -6863,13 +6863,13 @@
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>89</v>
@@ -6902,10 +6902,10 @@
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
       <c r="E39" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>89</v>
@@ -6938,10 +6938,10 @@
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
       <c r="E40" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>89</v>
@@ -6974,10 +6974,10 @@
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
       <c r="E41" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>89</v>
@@ -7010,10 +7010,10 @@
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
       <c r="E42" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>89</v>
@@ -7045,13 +7045,13 @@
       </c>
       <c r="C43" s="52"/>
       <c r="D43" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>89</v>
@@ -7084,10 +7084,10 @@
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
       <c r="E44" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>89</v>
@@ -7120,10 +7120,10 @@
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
       <c r="E45" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>89</v>
@@ -7156,10 +7156,10 @@
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
       <c r="E46" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>89</v>
@@ -7192,10 +7192,10 @@
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>
       <c r="E47" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>89</v>
@@ -7227,13 +7227,13 @@
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>89</v>
@@ -7266,10 +7266,10 @@
       <c r="C49" s="52"/>
       <c r="D49" s="52"/>
       <c r="E49" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>89</v>
@@ -7302,10 +7302,10 @@
       <c r="C50" s="52"/>
       <c r="D50" s="52"/>
       <c r="E50" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>89</v>
@@ -7338,10 +7338,10 @@
       <c r="C51" s="52"/>
       <c r="D51" s="52"/>
       <c r="E51" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>89</v>
@@ -7374,10 +7374,10 @@
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
       <c r="E52" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>89</v>
@@ -7409,13 +7409,13 @@
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>89</v>
@@ -7448,10 +7448,10 @@
       <c r="C54" s="52"/>
       <c r="D54" s="52"/>
       <c r="E54" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>89</v>
@@ -7486,10 +7486,10 @@
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>89</v>
@@ -7522,10 +7522,10 @@
       <c r="C56" s="51"/>
       <c r="D56" s="52"/>
       <c r="E56" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>89</v>
@@ -7558,10 +7558,10 @@
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
       <c r="E57" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>89</v>
@@ -7593,13 +7593,13 @@
       </c>
       <c r="C58" s="51"/>
       <c r="D58" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>89</v>
@@ -7632,10 +7632,10 @@
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
       <c r="E59" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>89</v>
@@ -7666,14 +7666,14 @@
         <v>45</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D60" s="52"/>
       <c r="E60" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>89</v>
@@ -7706,10 +7706,10 @@
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
       <c r="E61" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>89</v>
@@ -7742,10 +7742,10 @@
       <c r="C62" s="51"/>
       <c r="D62" s="52"/>
       <c r="E62" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>89</v>
@@ -7777,13 +7777,13 @@
       </c>
       <c r="C63" s="51"/>
       <c r="D63" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>89</v>
@@ -7816,10 +7816,10 @@
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
       <c r="E64" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>89</v>
@@ -7850,14 +7850,14 @@
         <v>50</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="52"/>
       <c r="E65" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>89</v>
@@ -7890,10 +7890,10 @@
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
       <c r="E66" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>89</v>
@@ -7926,10 +7926,10 @@
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
       <c r="E67" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>89</v>
@@ -7961,13 +7961,13 @@
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>89</v>
@@ -8000,10 +8000,10 @@
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
       <c r="E69" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>89</v>
@@ -8036,10 +8036,10 @@
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
       <c r="E70" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>89</v>
@@ -8072,10 +8072,10 @@
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
       <c r="E71" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>89</v>
@@ -8108,10 +8108,10 @@
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
       <c r="E72" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>89</v>
@@ -8143,13 +8143,13 @@
       </c>
       <c r="C73" s="51"/>
       <c r="D73" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>89</v>
@@ -8182,10 +8182,10 @@
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
       <c r="E74" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>89</v>
@@ -8218,10 +8218,10 @@
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
       <c r="E75" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>89</v>
@@ -8254,10 +8254,10 @@
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
       <c r="E76" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>89</v>
@@ -8290,10 +8290,10 @@
       <c r="C77" s="51"/>
       <c r="D77" s="52"/>
       <c r="E77" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>89</v>
@@ -8325,13 +8325,13 @@
       </c>
       <c r="C78" s="51"/>
       <c r="D78" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>89</v>
@@ -8364,10 +8364,10 @@
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
       <c r="E79" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>89</v>
@@ -8400,10 +8400,10 @@
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
       <c r="E80" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>89</v>
@@ -8436,10 +8436,10 @@
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
       <c r="E81" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>89</v>
@@ -8472,10 +8472,10 @@
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
       <c r="E82" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>89</v>
@@ -8507,13 +8507,13 @@
       </c>
       <c r="C83" s="51"/>
       <c r="D83" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>89</v>
@@ -8546,10 +8546,10 @@
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
       <c r="E84" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>89</v>
@@ -8582,10 +8582,10 @@
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
       <c r="E85" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>89</v>
@@ -8618,10 +8618,10 @@
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
       <c r="E86" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>89</v>
@@ -8654,10 +8654,10 @@
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
       <c r="E87" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>89</v>
@@ -8689,13 +8689,13 @@
       </c>
       <c r="C88" s="51"/>
       <c r="D88" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>89</v>
@@ -8728,10 +8728,10 @@
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
       <c r="E89" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>89</v>
@@ -8764,10 +8764,10 @@
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
       <c r="E90" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>89</v>
@@ -8800,10 +8800,10 @@
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
       <c r="E91" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>89</v>
@@ -8836,10 +8836,10 @@
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
       <c r="E92" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>89</v>
@@ -8871,13 +8871,13 @@
       </c>
       <c r="C93" s="51"/>
       <c r="D93" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>89</v>
@@ -8910,10 +8910,10 @@
       <c r="C94" s="51"/>
       <c r="D94" s="52"/>
       <c r="E94" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>89</v>
@@ -8946,10 +8946,10 @@
       <c r="C95" s="51"/>
       <c r="D95" s="52"/>
       <c r="E95" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>89</v>
@@ -8982,10 +8982,10 @@
       <c r="C96" s="51"/>
       <c r="D96" s="52"/>
       <c r="E96" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>89</v>
@@ -9018,10 +9018,10 @@
       <c r="C97" s="51"/>
       <c r="D97" s="52"/>
       <c r="E97" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>89</v>
@@ -9053,13 +9053,13 @@
       </c>
       <c r="C98" s="51"/>
       <c r="D98" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>89</v>
@@ -9092,10 +9092,10 @@
       <c r="C99" s="51"/>
       <c r="D99" s="52"/>
       <c r="E99" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>89</v>
@@ -9128,10 +9128,10 @@
       <c r="C100" s="51"/>
       <c r="D100" s="52"/>
       <c r="E100" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>89</v>
@@ -9164,10 +9164,10 @@
       <c r="C101" s="51"/>
       <c r="D101" s="52"/>
       <c r="E101" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>89</v>
@@ -9200,10 +9200,10 @@
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
       <c r="E102" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>89</v>
@@ -9235,13 +9235,13 @@
       </c>
       <c r="C103" s="51"/>
       <c r="D103" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>89</v>
@@ -9274,10 +9274,10 @@
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
       <c r="E104" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>89</v>
@@ -9310,10 +9310,10 @@
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
       <c r="E105" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>89</v>
@@ -9346,10 +9346,10 @@
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
       <c r="E106" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>89</v>
@@ -9382,10 +9382,10 @@
       <c r="C107" s="51"/>
       <c r="D107" s="52"/>
       <c r="E107" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>89</v>
@@ -9417,13 +9417,13 @@
       </c>
       <c r="C108" s="51"/>
       <c r="D108" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>89</v>
@@ -9456,10 +9456,10 @@
       <c r="C109" s="51"/>
       <c r="D109" s="52"/>
       <c r="E109" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>89</v>
@@ -9492,10 +9492,10 @@
       <c r="C110" s="51"/>
       <c r="D110" s="52"/>
       <c r="E110" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>89</v>
@@ -9528,10 +9528,10 @@
       <c r="C111" s="51"/>
       <c r="D111" s="52"/>
       <c r="E111" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>89</v>
@@ -9564,10 +9564,10 @@
       <c r="C112" s="51"/>
       <c r="D112" s="52"/>
       <c r="E112" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>89</v>
@@ -9599,13 +9599,13 @@
       </c>
       <c r="C113" s="51"/>
       <c r="D113" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>89</v>
@@ -9638,10 +9638,10 @@
       <c r="C114" s="51"/>
       <c r="D114" s="52"/>
       <c r="E114" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>89</v>
@@ -9674,10 +9674,10 @@
       <c r="C115" s="51"/>
       <c r="D115" s="52"/>
       <c r="E115" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>89</v>
@@ -9710,10 +9710,10 @@
       <c r="C116" s="51"/>
       <c r="D116" s="52"/>
       <c r="E116" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>89</v>
@@ -9746,10 +9746,10 @@
       <c r="C117" s="51"/>
       <c r="D117" s="52"/>
       <c r="E117" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>89</v>
@@ -9777,18 +9777,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="C65:C117"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="D63:D67"/>
     <mergeCell ref="C8:C54"/>
     <mergeCell ref="C55:C59"/>
     <mergeCell ref="C60:C64"/>
@@ -9803,6 +9791,18 @@
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="C65:C117"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="D63:D67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/item.xlsx
+++ b/item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\gitExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\gitPull\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91B302-1849-4D73-B1F2-3753FCBCA4E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD54724C-3E6C-4DE5-BA86-982A92A9EC76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="181">
   <si>
     <t>Scene Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,6 +772,10 @@
   </si>
   <si>
     <t>진행필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item내용 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,12 +1275,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1286,10 +1284,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,10 +1296,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1624,50 +1628,52 @@
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="43"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="45"/>
+      <c r="H2" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="47"/>
+      <c r="K2" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="40"/>
+      <c r="E5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="F5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="K5" s="41" t="s">
+      <c r="I5" s="40"/>
+      <c r="K5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="9" t="s">
@@ -1753,22 +1759,22 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="40"/>
+      <c r="E10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="H10" s="41" t="s">
+      <c r="F10" s="40"/>
+      <c r="H10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="K10" s="41" t="s">
+      <c r="I10" s="40"/>
+      <c r="K10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
@@ -1854,22 +1860,22 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="17" thickBot="1">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="40"/>
+      <c r="E15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="H15" s="43" t="s">
+      <c r="F15" s="40"/>
+      <c r="H15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="K15" s="43" t="s">
+      <c r="I15" s="40"/>
+      <c r="K15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="42"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
@@ -1980,37 +1986,37 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="43"/>
-      <c r="C21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="42"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6:C7">
@@ -9777,18 +9783,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="C65:C117"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="D63:D67"/>
     <mergeCell ref="C8:C54"/>
     <mergeCell ref="C55:C59"/>
     <mergeCell ref="C60:C64"/>
@@ -9803,6 +9797,18 @@
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="C65:C117"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="D63:D67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/item.xlsx
+++ b/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\gitPull\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD54724C-3E6C-4DE5-BA86-982A92A9EC76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C30B954-D605-4C92-9F97-B802469267F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item내용 수정</t>
+    <t>item내용 수정-test1branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,6 +1275,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1284,10 +1290,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,16 +1302,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1628,52 +1628,52 @@
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="47"/>
+      <c r="H2" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="K2" s="48" t="s">
+      <c r="I2" s="45"/>
+      <c r="K2" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="2:12" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="E5" s="39" t="s">
+      <c r="C5" s="42"/>
+      <c r="E5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="H5" s="39" t="s">
+      <c r="F5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="K5" s="39" t="s">
+      <c r="I5" s="42"/>
+      <c r="K5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="40"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="9" t="s">
@@ -1759,22 +1759,22 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="E10" s="39" t="s">
+      <c r="C10" s="42"/>
+      <c r="E10" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="H10" s="39" t="s">
+      <c r="F10" s="42"/>
+      <c r="H10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="K10" s="39" t="s">
+      <c r="I10" s="42"/>
+      <c r="K10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="40"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
@@ -1860,22 +1860,22 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="17" thickBot="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="E15" s="41" t="s">
+      <c r="C15" s="42"/>
+      <c r="E15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="H15" s="41" t="s">
+      <c r="F15" s="42"/>
+      <c r="H15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="K15" s="41" t="s">
+      <c r="I15" s="42"/>
+      <c r="K15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
@@ -1986,37 +1986,37 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="41"/>
-      <c r="C21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="40"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6:C7">
@@ -9783,6 +9783,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="C65:C117"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="D63:D67"/>
     <mergeCell ref="C8:C54"/>
     <mergeCell ref="C55:C59"/>
     <mergeCell ref="C60:C64"/>
@@ -9797,18 +9809,6 @@
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="D58:D62"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="C65:C117"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="D63:D67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
